--- a/raw_data/20200818_saline/20200818_Sensor3_Test_50.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_50.xlsx
@@ -1,975 +1,1391 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AC753C-A99A-4412-9125-58F06F531BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>44660.689556</v>
+        <v>44660.689555999998</v>
       </c>
       <c r="B2" s="1">
         <v>12.405747</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.620000</v>
+        <v>1149.6199999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-236.072000</v>
+        <v>-236.072</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>44671.076773</v>
+        <v>44671.076773000001</v>
       </c>
       <c r="G2" s="1">
-        <v>12.408632</v>
+        <v>12.408632000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1168.400000</v>
+        <v>1168.4000000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-201.114000</v>
+        <v>-201.114</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>44681.430761</v>
+        <v>44681.430761000003</v>
       </c>
       <c r="L2" s="1">
-        <v>12.411509</v>
+        <v>12.411509000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1196.470000</v>
+        <v>1196.47</v>
       </c>
       <c r="N2" s="1">
-        <v>-143.414000</v>
+        <v>-143.41399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>44692.300122</v>
+        <v>44692.300122000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.414528</v>
+        <v>12.414528000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1205.010000</v>
+        <v>1205.01</v>
       </c>
       <c r="S2" s="1">
-        <v>-124.026000</v>
+        <v>-124.026</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>44702.841102</v>
+        <v>44702.841101999999</v>
       </c>
       <c r="V2" s="1">
         <v>12.417456</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.320000</v>
+        <v>1213.32</v>
       </c>
       <c r="X2" s="1">
-        <v>-105.162000</v>
+        <v>-105.16200000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>44713.256558</v>
+        <v>44713.256558000001</v>
       </c>
       <c r="AA2" s="1">
         <v>12.420349</v>
       </c>
       <c r="AB2" s="1">
-        <v>1221.770000</v>
+        <v>1221.77</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.692700</v>
+        <v>-89.692700000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>44723.794559</v>
+        <v>44723.794559000002</v>
       </c>
       <c r="AF2" s="1">
         <v>12.423276</v>
       </c>
       <c r="AG2" s="1">
-        <v>1226.980000</v>
+        <v>1226.98</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.768100</v>
+        <v>-85.768100000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>44734.570182</v>
+        <v>44734.570182000003</v>
       </c>
       <c r="AK2" s="1">
         <v>12.426269</v>
       </c>
       <c r="AL2" s="1">
-        <v>1234.480000</v>
+        <v>1234.48</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.647700</v>
+        <v>-89.6477</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>44745.154772</v>
+        <v>44745.154772000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.429210</v>
+        <v>12.429209999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>44755.875798</v>
+        <v>44755.875798000001</v>
       </c>
       <c r="AU2" s="1">
         <v>12.432188</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.585000</v>
+        <v>-121.58499999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>44766.951959</v>
+        <v>44766.951958999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>12.435264</v>
       </c>
       <c r="BA2" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.306000</v>
+        <v>-139.30600000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>44777.487482</v>
+        <v>44777.487481999997</v>
       </c>
       <c r="BE2" s="1">
         <v>12.438191</v>
       </c>
       <c r="BF2" s="1">
-        <v>1301.460000</v>
+        <v>1301.46</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.356000</v>
+        <v>-222.35599999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>44788.566122</v>
+        <v>44788.566121999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>12.441268</v>
+        <v>12.441268000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.875000</v>
+        <v>-360.875</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>44799.981579</v>
+        <v>44799.981578999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.444439</v>
+        <v>12.444438999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.990000</v>
+        <v>1485.99</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-587.028000</v>
+        <v>-587.02800000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>44810.325613</v>
+        <v>44810.325613000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.447313</v>
+        <v>12.447312999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1618.270000</v>
+        <v>1618.27</v>
       </c>
       <c r="BV2" s="1">
-        <v>-843.003000</v>
+        <v>-843.00300000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>44820.639424</v>
+        <v>44820.639424000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.450178</v>
+        <v>12.450177999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.360000</v>
+        <v>1772.36</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1121.810000</v>
+        <v>-1121.81</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>44831.671478</v>
+        <v>44831.671477999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.453242</v>
+        <v>12.453241999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2195.340000</v>
+        <v>2195.34</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1800.690000</v>
+        <v>-1800.69</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>44661.043726</v>
+        <v>44661.043726000004</v>
       </c>
       <c r="B3" s="1">
-        <v>12.405845</v>
+        <v>12.405844999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.670000</v>
+        <v>1149.67</v>
       </c>
       <c r="D3" s="1">
-        <v>-236.065000</v>
+        <v>-236.065</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>44671.801459</v>
+        <v>44671.801459000002</v>
       </c>
       <c r="G3" s="1">
-        <v>12.408834</v>
+        <v>12.408834000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.400000</v>
+        <v>1169.4000000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-200.720000</v>
+        <v>-200.72</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>44682.161894</v>
+        <v>44682.161893999997</v>
       </c>
       <c r="L3" s="1">
         <v>12.411712</v>
       </c>
       <c r="M3" s="1">
-        <v>1196.480000</v>
+        <v>1196.48</v>
       </c>
       <c r="N3" s="1">
-        <v>-143.212000</v>
+        <v>-143.21199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>44692.638856</v>
+        <v>44692.638855999998</v>
       </c>
       <c r="Q3" s="1">
         <v>12.414622</v>
       </c>
       <c r="R3" s="1">
-        <v>1204.970000</v>
+        <v>1204.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-124.040000</v>
+        <v>-124.04</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>44703.187770</v>
+        <v>44703.187769999997</v>
       </c>
       <c r="V3" s="1">
-        <v>12.417552</v>
+        <v>12.417552000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="X3" s="1">
-        <v>-105.109000</v>
+        <v>-105.10899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>44713.610239</v>
+        <v>44713.610239000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>12.420447</v>
+        <v>12.420446999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1221.720000</v>
+        <v>1221.72</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.812500</v>
+        <v>-89.8125</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>44724.476063</v>
+        <v>44724.476063000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.423466</v>
+        <v>12.423465999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1227.000000</v>
+        <v>1227</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.783000</v>
+        <v>-85.783000000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>44734.991248</v>
+        <v>44734.991247999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>12.426386</v>
+        <v>12.426386000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.637800</v>
+        <v>-89.637799999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>44745.587315</v>
+        <v>44745.587314999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>12.429330</v>
+        <v>12.42933</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1242.620000</v>
+        <v>1242.6199999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.937000</v>
+        <v>-101.937</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>44756.240388</v>
+        <v>44756.240387999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.432289</v>
+        <v>12.432289000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1252.700000</v>
+        <v>1252.7</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.595000</v>
+        <v>-121.595</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>44767.314038</v>
+        <v>44767.314037999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>12.435365</v>
+        <v>12.435364999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.324000</v>
+        <v>-139.32400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>44777.891224</v>
+        <v>44777.891223999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>12.438303</v>
+        <v>12.438302999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1301.450000</v>
+        <v>1301.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.330000</v>
+        <v>-222.33</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>44788.992681</v>
+        <v>44788.992681000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.441387</v>
+        <v>12.441387000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.866000</v>
+        <v>-360.86599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>44800.094636</v>
+        <v>44800.094636000002</v>
       </c>
       <c r="BO3" s="1">
         <v>12.444471</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.930000</v>
+        <v>1485.93</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-587.036000</v>
+        <v>-587.03599999999994</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>44810.475902</v>
+        <v>44810.475901999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.447354</v>
+        <v>12.447354000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1618.250000</v>
+        <v>1618.25</v>
       </c>
       <c r="BV3" s="1">
-        <v>-843.176000</v>
+        <v>-843.17600000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>44821.100703</v>
+        <v>44821.100702999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.450306</v>
+        <v>12.450305999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.440000</v>
+        <v>1772.44</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1121.900000</v>
+        <v>-1121.9000000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>44832.264657</v>
@@ -978,120 +1394,120 @@
         <v>12.453407</v>
       </c>
       <c r="CE3" s="1">
-        <v>2196.770000</v>
+        <v>2196.77</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1798.040000</v>
+        <v>-1798.04</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>44661.727681</v>
+        <v>44661.727680999997</v>
       </c>
       <c r="B4" s="1">
-        <v>12.406035</v>
+        <v>12.406034999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.740000</v>
+        <v>1149.74</v>
       </c>
       <c r="D4" s="1">
-        <v>-235.993000</v>
+        <v>-235.99299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>44672.149156</v>
+        <v>44672.149155999999</v>
       </c>
       <c r="G4" s="1">
-        <v>12.408930</v>
+        <v>12.40893</v>
       </c>
       <c r="H4" s="1">
-        <v>1168.870000</v>
+        <v>1168.8699999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-201.313000</v>
+        <v>-201.31299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>44682.507078</v>
+        <v>44682.507078000002</v>
       </c>
       <c r="L4" s="1">
-        <v>12.411808</v>
+        <v>12.411808000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1196.380000</v>
+        <v>1196.3800000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-143.612000</v>
+        <v>-143.61199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>44692.982894</v>
+        <v>44692.982894000001</v>
       </c>
       <c r="Q4" s="1">
         <v>12.414717</v>
       </c>
       <c r="R4" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="S4" s="1">
-        <v>-124.032000</v>
+        <v>-124.032</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>44703.847451</v>
+        <v>44703.847451000001</v>
       </c>
       <c r="V4" s="1">
         <v>12.417735</v>
       </c>
       <c r="W4" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="X4" s="1">
-        <v>-105.120000</v>
+        <v>-105.12</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>44714.271868</v>
+        <v>44714.271868000003</v>
       </c>
       <c r="AA4" s="1">
         <v>12.420631</v>
       </c>
       <c r="AB4" s="1">
-        <v>1221.820000</v>
+        <v>1221.82</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.700200</v>
+        <v>-89.700199999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>44724.847566</v>
+        <v>44724.847565999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.423569</v>
+        <v>12.423569000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1226.920000</v>
+        <v>1226.92</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.740800</v>
+        <v>-85.740799999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>44735.342912</v>
@@ -1100,315 +1516,315 @@
         <v>12.426484</v>
       </c>
       <c r="AL4" s="1">
-        <v>1234.490000</v>
+        <v>1234.49</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.644500</v>
+        <v>-89.644499999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>44745.949892</v>
+        <v>44745.949891999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>12.429431</v>
+        <v>12.429430999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.935000</v>
+        <v>-101.935</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>44756.607929</v>
+        <v>44756.607928999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>12.432391</v>
+        <v>12.432391000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1252.700000</v>
+        <v>1252.7</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.580000</v>
+        <v>-121.58</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>44767.740102</v>
+        <v>44767.740102000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>12.435483</v>
       </c>
       <c r="BA4" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.348000</v>
+        <v>-139.34800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>44778.305915</v>
+        <v>44778.305914999997</v>
       </c>
       <c r="BE4" s="1">
         <v>12.438418</v>
       </c>
       <c r="BF4" s="1">
-        <v>1301.490000</v>
+        <v>1301.49</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.387000</v>
+        <v>-222.387</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>44789.344345</v>
+        <v>44789.344344999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>12.441485</v>
       </c>
       <c r="BK4" s="1">
-        <v>1371.280000</v>
+        <v>1371.28</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.881000</v>
+        <v>-360.88099999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>44800.522684</v>
+        <v>44800.522684000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.444590</v>
+        <v>12.44459</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.980000</v>
+        <v>1485.98</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-587.087000</v>
+        <v>-587.08699999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>44810.893532</v>
+        <v>44810.893532000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>12.447470</v>
+        <v>12.447469999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1618.300000</v>
+        <v>1618.3</v>
       </c>
       <c r="BV4" s="1">
-        <v>-843.336000</v>
+        <v>-843.33600000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>44821.523325</v>
+        <v>44821.523325000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.450423</v>
+        <v>12.450423000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.440000</v>
+        <v>1772.44</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1121.840000</v>
+        <v>-1121.8399999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>44833.137119</v>
+        <v>44833.137118999999</v>
       </c>
       <c r="CD4" s="1">
         <v>12.453649</v>
       </c>
       <c r="CE4" s="1">
-        <v>2197.260000</v>
+        <v>2197.2600000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1800.340000</v>
+        <v>-1800.34</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>44662.069073</v>
+        <v>44662.069072999999</v>
       </c>
       <c r="B5" s="1">
-        <v>12.406130</v>
+        <v>12.406129999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.770000</v>
+        <v>1149.77</v>
       </c>
       <c r="D5" s="1">
-        <v>-235.699000</v>
+        <v>-235.69900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>44672.491860</v>
+        <v>44672.491860000002</v>
       </c>
       <c r="G5" s="1">
-        <v>12.409026</v>
+        <v>12.409026000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1168.590000</v>
+        <v>1168.5899999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-200.446000</v>
+        <v>-200.446</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>44682.853318</v>
+        <v>44682.853318000001</v>
       </c>
       <c r="L5" s="1">
         <v>12.411904</v>
       </c>
       <c r="M5" s="1">
-        <v>1196.190000</v>
+        <v>1196.19</v>
       </c>
       <c r="N5" s="1">
-        <v>-143.469000</v>
+        <v>-143.46899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>44693.641271</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.414900</v>
+        <v>12.414899999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1204.860000</v>
+        <v>1204.8599999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-124.018000</v>
+        <v>-124.018</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>44704.217002</v>
+        <v>44704.217001999998</v>
       </c>
       <c r="V5" s="1">
         <v>12.417838</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.200000</v>
+        <v>1213.2</v>
       </c>
       <c r="X5" s="1">
-        <v>-105.256000</v>
+        <v>-105.256</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>44714.654283</v>
+        <v>44714.654283000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>12.420737</v>
+        <v>12.420737000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1221.810000</v>
+        <v>1221.81</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.751600</v>
+        <v>-89.751599999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>44725.192781</v>
+        <v>44725.192780999998</v>
       </c>
       <c r="AF5" s="1">
         <v>12.423665</v>
       </c>
       <c r="AG5" s="1">
-        <v>1226.920000</v>
+        <v>1226.92</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.738100</v>
+        <v>-85.738100000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>44735.689648</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.426580</v>
+        <v>12.42658</v>
       </c>
       <c r="AL5" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.641100</v>
+        <v>-89.641099999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>44746.309953</v>
+        <v>44746.309953000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.429531</v>
+        <v>12.429531000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1242.600000</v>
+        <v>1242.5999999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.933000</v>
+        <v>-101.93300000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>44757.029529</v>
+        <v>44757.029528999999</v>
       </c>
       <c r="AU5" s="1">
         <v>12.432508</v>
       </c>
       <c r="AV5" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.610000</v>
+        <v>-121.61</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>44768.031285</v>
+        <v>44768.031284999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>12.435564</v>
+        <v>12.435563999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.334000</v>
+        <v>-139.334</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>44778.608667</v>
@@ -1417,452 +1833,452 @@
         <v>12.438502</v>
       </c>
       <c r="BF5" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.377000</v>
+        <v>-222.37700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>44789.720345</v>
+        <v>44789.720345000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>12.441589</v>
       </c>
       <c r="BK5" s="1">
-        <v>1371.220000</v>
+        <v>1371.22</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.918000</v>
+        <v>-360.91800000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>44800.917994</v>
+        <v>44800.917994000003</v>
       </c>
       <c r="BO5" s="1">
         <v>12.444699</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.050000</v>
+        <v>1486.05</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-587.099000</v>
+        <v>-587.09900000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>44811.319101</v>
+        <v>44811.319101000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.447589</v>
+        <v>12.447589000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.390000</v>
+        <v>1618.39</v>
       </c>
       <c r="BV5" s="1">
-        <v>-843.394000</v>
+        <v>-843.39400000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>44821.961261</v>
+        <v>44821.961260999997</v>
       </c>
       <c r="BY5" s="1">
         <v>12.450545</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.430000</v>
+        <v>1772.43</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1121.890000</v>
+        <v>-1121.8900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>44833.343960</v>
+        <v>44833.343959999998</v>
       </c>
       <c r="CD5" s="1">
         <v>12.453707</v>
       </c>
       <c r="CE5" s="1">
-        <v>2197.140000</v>
+        <v>2197.14</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1800.630000</v>
+        <v>-1800.63</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>44662.400258</v>
+        <v>44662.400258000001</v>
       </c>
       <c r="B6" s="1">
         <v>12.406222</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.660000</v>
+        <v>1149.6600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-236.133000</v>
+        <v>-236.13300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>44673.154018</v>
+        <v>44673.154018000001</v>
       </c>
       <c r="G6" s="1">
-        <v>12.409209</v>
+        <v>12.409209000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1169.290000</v>
+        <v>1169.29</v>
       </c>
       <c r="I6" s="1">
-        <v>-200.932000</v>
+        <v>-200.93199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>44683.524901</v>
+        <v>44683.524900999997</v>
       </c>
       <c r="L6" s="1">
-        <v>12.412090</v>
+        <v>12.412089999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1196.460000</v>
+        <v>1196.46</v>
       </c>
       <c r="N6" s="1">
-        <v>-143.330000</v>
+        <v>-143.33000000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>44694.032913</v>
+        <v>44694.032913000003</v>
       </c>
       <c r="Q6" s="1">
         <v>12.415009</v>
       </c>
       <c r="R6" s="1">
-        <v>1204.880000</v>
+        <v>1204.8800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-123.977000</v>
+        <v>-123.977</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>44704.560698</v>
+        <v>44704.560698000001</v>
       </c>
       <c r="V6" s="1">
-        <v>12.417934</v>
+        <v>12.417934000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.200000</v>
+        <v>1213.2</v>
       </c>
       <c r="X6" s="1">
-        <v>-105.252000</v>
+        <v>-105.252</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>44715.002012</v>
+        <v>44715.002011999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>12.420834</v>
+        <v>12.420833999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1221.840000</v>
+        <v>1221.8399999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.814400</v>
+        <v>-89.814400000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>44725.540974</v>
+        <v>44725.540974000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.423761</v>
+        <v>12.423761000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1226.910000</v>
+        <v>1226.9100000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.734900</v>
+        <v>-85.734899999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>44736.117664</v>
+        <v>44736.117663999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.426699</v>
+        <v>12.426698999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1234.480000</v>
+        <v>1234.48</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.628400</v>
+        <v>-89.628399999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>44746.734529</v>
+        <v>44746.734529000001</v>
       </c>
       <c r="AP6" s="1">
         <v>12.429648</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.921000</v>
+        <v>-101.92100000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>44757.336552</v>
+        <v>44757.336552000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.432593</v>
+        <v>12.432593000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1252.730000</v>
+        <v>1252.73</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.574000</v>
+        <v>-121.574</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>44768.388372</v>
+        <v>44768.388372000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.435663</v>
       </c>
       <c r="BA6" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.347000</v>
+        <v>-139.34700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>44778.971014</v>
+        <v>44778.971014000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.438603</v>
+        <v>12.438603000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.381000</v>
+        <v>-222.381</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>44790.101736</v>
+        <v>44790.101735999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>12.441695</v>
+        <v>12.441694999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.882000</v>
+        <v>-360.88200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>44801.340585</v>
+        <v>44801.340584999998</v>
       </c>
       <c r="BO6" s="1">
         <v>12.444817</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.990000</v>
+        <v>1485.99</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-587.041000</v>
+        <v>-587.04100000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>44811.748635</v>
+        <v>44811.748635000004</v>
       </c>
       <c r="BT6" s="1">
         <v>12.447708</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.420000</v>
+        <v>1618.42</v>
       </c>
       <c r="BV6" s="1">
-        <v>-843.549000</v>
+        <v>-843.54899999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>44822.395789</v>
+        <v>44822.395789000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>12.450665</v>
+        <v>12.450665000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.420000</v>
+        <v>1772.42</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1121.860000</v>
+        <v>-1121.8599999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>44833.862302</v>
+        <v>44833.862302000001</v>
       </c>
       <c r="CD6" s="1">
         <v>12.453851</v>
       </c>
       <c r="CE6" s="1">
-        <v>2197.560000</v>
+        <v>2197.56</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1798.910000</v>
+        <v>-1798.91</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>44663.069896</v>
+        <v>44663.069896000001</v>
       </c>
       <c r="B7" s="1">
-        <v>12.406408</v>
+        <v>12.406408000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.840000</v>
+        <v>1149.8399999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-235.968000</v>
+        <v>-235.96799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>44673.523570</v>
+        <v>44673.523569999998</v>
       </c>
       <c r="G7" s="1">
         <v>12.409312</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.010000</v>
+        <v>1169.01</v>
       </c>
       <c r="I7" s="1">
-        <v>-200.673000</v>
+        <v>-200.673</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>44683.913766</v>
+        <v>44683.913765999998</v>
       </c>
       <c r="L7" s="1">
         <v>12.412198</v>
       </c>
       <c r="M7" s="1">
-        <v>1196.520000</v>
+        <v>1196.52</v>
       </c>
       <c r="N7" s="1">
-        <v>-143.367000</v>
+        <v>-143.36699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>44694.381799</v>
+        <v>44694.381799000003</v>
       </c>
       <c r="Q7" s="1">
         <v>12.415106</v>
       </c>
       <c r="R7" s="1">
-        <v>1204.940000</v>
+        <v>1204.94</v>
       </c>
       <c r="S7" s="1">
-        <v>-123.970000</v>
+        <v>-123.97</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>44704.903446</v>
+        <v>44704.903445999997</v>
       </c>
       <c r="V7" s="1">
-        <v>12.418029</v>
+        <v>12.418029000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.100000</v>
+        <v>1213.0999999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-105.219000</v>
+        <v>-105.21899999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>44715.350667</v>
+        <v>44715.350666999999</v>
       </c>
       <c r="AA7" s="1">
         <v>12.420931</v>
       </c>
       <c r="AB7" s="1">
-        <v>1221.790000</v>
+        <v>1221.79</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.709500</v>
+        <v>-89.709500000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>44725.965081</v>
+        <v>44725.965081000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.423879</v>
+        <v>12.423878999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1226.920000</v>
+        <v>1226.92</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.773600</v>
+        <v>-85.773600000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>44736.396945</v>
@@ -1871,28 +2287,28 @@
         <v>12.426777</v>
       </c>
       <c r="AL7" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.671300</v>
+        <v>-89.671300000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>44747.028688</v>
+        <v>44747.028687999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.429730</v>
+        <v>12.429729999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1242.620000</v>
+        <v>1242.6199999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.913000</v>
+        <v>-101.913</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>44757.700115</v>
@@ -1901,58 +2317,58 @@
         <v>12.432694</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.607000</v>
+        <v>-121.607</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>44768.749460</v>
+        <v>44768.749459999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.435764</v>
+        <v>12.435764000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.304000</v>
+        <v>-139.304</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>44779.331110</v>
+        <v>44779.331109999999</v>
       </c>
       <c r="BE7" s="1">
         <v>12.438703</v>
       </c>
       <c r="BF7" s="1">
-        <v>1301.490000</v>
+        <v>1301.49</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.380000</v>
+        <v>-222.38</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>44790.866567</v>
+        <v>44790.866566999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>12.441907</v>
       </c>
       <c r="BK7" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.905000</v>
+        <v>-360.90499999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>44801.736889</v>
@@ -1961,407 +2377,407 @@
         <v>12.444927</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.910000</v>
+        <v>1485.91</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-587.090000</v>
+        <v>-587.09</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>44812.161802</v>
+        <v>44812.161802000002</v>
       </c>
       <c r="BT7" s="1">
         <v>12.447823</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.630000</v>
+        <v>1618.63</v>
       </c>
       <c r="BV7" s="1">
-        <v>-843.612000</v>
+        <v>-843.61199999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>44822.815374</v>
+        <v>44822.815373999998</v>
       </c>
       <c r="BY7" s="1">
         <v>12.450782</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.260000</v>
+        <v>1772.26</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1121.990000</v>
+        <v>-1121.99</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>44834.695580</v>
+        <v>44834.69558</v>
       </c>
       <c r="CD7" s="1">
         <v>12.454082</v>
       </c>
       <c r="CE7" s="1">
-        <v>2195.040000</v>
+        <v>2195.04</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1798.560000</v>
+        <v>-1798.56</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>44663.437392</v>
       </c>
       <c r="B8" s="1">
-        <v>12.406510</v>
+        <v>12.406510000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.460000</v>
+        <v>1149.46</v>
       </c>
       <c r="D8" s="1">
-        <v>-235.777000</v>
+        <v>-235.77699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>44673.867265</v>
+        <v>44673.867265000001</v>
       </c>
       <c r="G8" s="1">
-        <v>12.409408</v>
+        <v>12.409408000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.400000</v>
+        <v>1169.4000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-200.499000</v>
+        <v>-200.499</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>44684.241589</v>
+        <v>44684.241588999997</v>
       </c>
       <c r="L8" s="1">
-        <v>12.412289</v>
+        <v>12.412288999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1196.360000</v>
+        <v>1196.3599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-143.408000</v>
+        <v>-143.40799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>44694.730021</v>
+        <v>44694.730021000003</v>
       </c>
       <c r="Q8" s="1">
         <v>12.415203</v>
       </c>
       <c r="R8" s="1">
-        <v>1204.960000</v>
+        <v>1204.96</v>
       </c>
       <c r="S8" s="1">
-        <v>-124.003000</v>
+        <v>-124.003</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>44705.326059</v>
+        <v>44705.326058999999</v>
       </c>
       <c r="V8" s="1">
         <v>12.418146</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.160000</v>
+        <v>1213.1600000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-105.195000</v>
+        <v>-105.19499999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>44715.771274</v>
+        <v>44715.771273999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.421048</v>
+        <v>12.421048000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1221.760000</v>
+        <v>1221.76</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.641300</v>
+        <v>-89.641300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>44726.243343</v>
+        <v>44726.243343000002</v>
       </c>
       <c r="AF8" s="1">
         <v>12.423956</v>
       </c>
       <c r="AG8" s="1">
-        <v>1226.910000</v>
+        <v>1226.9100000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.754200</v>
+        <v>-85.754199999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>44736.747582</v>
+        <v>44736.747582000004</v>
       </c>
       <c r="AK8" s="1">
         <v>12.426874</v>
       </c>
       <c r="AL8" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.634000</v>
+        <v>-89.634</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>44747.387760</v>
+        <v>44747.387759999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.429830</v>
+        <v>12.429830000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.902000</v>
+        <v>-101.902</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>44758.068646</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.432797</v>
+        <v>12.432797000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1252.700000</v>
+        <v>1252.7</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.575000</v>
+        <v>-121.575</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>44769.466214</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.435963</v>
+        <v>12.435962999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.310000</v>
+        <v>-139.31</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>44780.053815</v>
+        <v>44780.053814999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>12.438904</v>
+        <v>12.438904000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1301.490000</v>
+        <v>1301.49</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.399000</v>
+        <v>-222.399</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>44791.242535</v>
+        <v>44791.242534999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>12.442012</v>
       </c>
       <c r="BK8" s="1">
-        <v>1371.190000</v>
+        <v>1371.19</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.882000</v>
+        <v>-360.88200000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>44802.156504</v>
+        <v>44802.156503999999</v>
       </c>
       <c r="BO8" s="1">
         <v>12.445043</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.920000</v>
+        <v>1485.92</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-587.068000</v>
+        <v>-587.06799999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>44812.591339</v>
+        <v>44812.591338999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.447942</v>
+        <v>12.447941999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.860000</v>
+        <v>1618.86</v>
       </c>
       <c r="BV8" s="1">
-        <v>-843.639000</v>
+        <v>-843.63900000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>44823.552964</v>
+        <v>44823.552964000002</v>
       </c>
       <c r="BY8" s="1">
         <v>12.450987</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.420000</v>
+        <v>1772.42</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1122.000000</v>
+        <v>-1122</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>44834.892997</v>
+        <v>44834.892997000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>12.454137</v>
+        <v>12.454136999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2195.480000</v>
+        <v>2195.48</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1800.620000</v>
+        <v>-1800.62</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>44663.778175</v>
+        <v>44663.778174999999</v>
       </c>
       <c r="B9" s="1">
-        <v>12.406605</v>
+        <v>12.406605000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.730000</v>
+        <v>1149.73</v>
       </c>
       <c r="D9" s="1">
-        <v>-236.040000</v>
+        <v>-236.04</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>44674.211490</v>
+        <v>44674.211490000002</v>
       </c>
       <c r="G9" s="1">
-        <v>12.409503</v>
+        <v>12.409503000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.210000</v>
+        <v>1169.21</v>
       </c>
       <c r="I9" s="1">
-        <v>-200.324000</v>
+        <v>-200.32400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>44684.690008</v>
+        <v>44684.690007999998</v>
       </c>
       <c r="L9" s="1">
         <v>12.412414</v>
       </c>
       <c r="M9" s="1">
-        <v>1196.520000</v>
+        <v>1196.52</v>
       </c>
       <c r="N9" s="1">
-        <v>-143.536000</v>
+        <v>-143.536</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>44695.152613</v>
+        <v>44695.152612999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>12.415320</v>
+        <v>12.415319999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="S9" s="1">
-        <v>-124.002000</v>
+        <v>-124.002</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>44705.600311</v>
+        <v>44705.600311000002</v>
       </c>
       <c r="V9" s="1">
         <v>12.418222</v>
       </c>
       <c r="W9" s="1">
-        <v>1213.190000</v>
+        <v>1213.19</v>
       </c>
       <c r="X9" s="1">
-        <v>-105.047000</v>
+        <v>-105.047</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>44716.053497</v>
+        <v>44716.053497000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>12.421126</v>
+        <v>12.421125999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1221.790000</v>
+        <v>1221.79</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.739100</v>
+        <v>-89.739099999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>44726.585562</v>
@@ -2370,13 +2786,13 @@
         <v>12.424052</v>
       </c>
       <c r="AG9" s="1">
-        <v>1226.890000</v>
+        <v>1226.8900000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.838900</v>
+        <v>-85.838899999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>44737.094783</v>
@@ -2385,889 +2801,889 @@
         <v>12.426971</v>
       </c>
       <c r="AL9" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.623200</v>
+        <v>-89.623199999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>44747.752817</v>
+        <v>44747.752817000001</v>
       </c>
       <c r="AP9" s="1">
         <v>12.429931</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.912000</v>
+        <v>-101.91200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>44758.799250</v>
+        <v>44758.799249999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.433000</v>
+        <v>12.433</v>
       </c>
       <c r="AV9" s="1">
-        <v>1252.690000</v>
+        <v>1252.69</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.617000</v>
+        <v>-121.617</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>44769.823328</v>
+        <v>44769.823327999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>12.436062</v>
       </c>
       <c r="BA9" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.341000</v>
+        <v>-139.34100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>44780.440660</v>
+        <v>44780.44066</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.439011</v>
+        <v>12.439011000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.345000</v>
+        <v>-222.345</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>44791.618006</v>
+        <v>44791.618005999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>12.442116</v>
       </c>
       <c r="BK9" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.898000</v>
+        <v>-360.89800000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>44802.862311</v>
+        <v>44802.862310999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.445240</v>
+        <v>12.44524</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.970000</v>
+        <v>1485.97</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-587.032000</v>
+        <v>-587.03200000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>44813.329914</v>
+        <v>44813.329914000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>12.448147</v>
+        <v>12.448147000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.930000</v>
+        <v>1618.93</v>
       </c>
       <c r="BV9" s="1">
-        <v>-843.527000</v>
+        <v>-843.52700000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>44823.665051</v>
+        <v>44823.665051000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>12.451018</v>
+        <v>12.451017999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.350000</v>
+        <v>1772.35</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1121.830000</v>
+        <v>-1121.83</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>44835.414747</v>
+        <v>44835.414747000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>12.454282</v>
+        <v>12.454281999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2195.430000</v>
+        <v>2195.4299999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1800.580000</v>
+        <v>-1800.58</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>44664.121872</v>
+        <v>44664.121872000003</v>
       </c>
       <c r="B10" s="1">
         <v>12.406701</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D10" s="1">
-        <v>-235.637000</v>
+        <v>-235.637</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>44674.642514</v>
+        <v>44674.642513999999</v>
       </c>
       <c r="G10" s="1">
         <v>12.409623</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.240000</v>
+        <v>1169.24</v>
       </c>
       <c r="I10" s="1">
-        <v>-200.444000</v>
+        <v>-200.44399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>44684.967730</v>
+        <v>44684.967729999997</v>
       </c>
       <c r="L10" s="1">
-        <v>12.412491</v>
+        <v>12.412490999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1196.560000</v>
+        <v>1196.56</v>
       </c>
       <c r="N10" s="1">
-        <v>-143.702000</v>
+        <v>-143.702</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>44695.433318</v>
+        <v>44695.433318000003</v>
       </c>
       <c r="Q10" s="1">
         <v>12.415398</v>
       </c>
       <c r="R10" s="1">
-        <v>1204.920000</v>
+        <v>1204.92</v>
       </c>
       <c r="S10" s="1">
-        <v>-124.055000</v>
+        <v>-124.05500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>44705.944577</v>
+        <v>44705.944577000002</v>
       </c>
       <c r="V10" s="1">
-        <v>12.418318</v>
+        <v>12.418317999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.190000</v>
+        <v>1213.19</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.119000</v>
+        <v>-105.119</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>44716.403675</v>
+        <v>44716.403675000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.421223</v>
+        <v>12.421222999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1221.910000</v>
+        <v>1221.9100000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.728000</v>
+        <v>-89.727999999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>44726.930763</v>
+        <v>44726.930762999997</v>
       </c>
       <c r="AF10" s="1">
         <v>12.424147</v>
       </c>
       <c r="AG10" s="1">
-        <v>1226.940000</v>
+        <v>1226.94</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.755500</v>
+        <v>-85.755499999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>44737.788717</v>
+        <v>44737.788717000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>12.427164</v>
+        <v>12.427163999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.635700</v>
+        <v>-89.6357</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>44748.477968</v>
+        <v>44748.477967999999</v>
       </c>
       <c r="AP10" s="1">
         <v>12.430133</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.918000</v>
+        <v>-101.91800000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>44759.178657</v>
+        <v>44759.178656999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>12.433105</v>
+        <v>12.433104999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1252.710000</v>
+        <v>1252.71</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.583000</v>
+        <v>-121.583</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>44770.183891</v>
+        <v>44770.183891000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.436162</v>
+        <v>12.436161999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.335000</v>
+        <v>-139.33500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>44780.803267</v>
+        <v>44780.803267000003</v>
       </c>
       <c r="BE10" s="1">
         <v>12.439112</v>
       </c>
       <c r="BF10" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.363000</v>
+        <v>-222.363</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>44792.334724</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.442315</v>
+        <v>12.442315000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1371.260000</v>
+        <v>1371.26</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.885000</v>
+        <v>-360.88499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>44802.991271</v>
+        <v>44802.991270999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>12.445275</v>
+        <v>12.445275000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.930000</v>
+        <v>1485.93</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-587.054000</v>
+        <v>-587.05399999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>44813.464825</v>
+        <v>44813.464825000003</v>
       </c>
       <c r="BT10" s="1">
         <v>12.448185</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.050000</v>
+        <v>1619.05</v>
       </c>
       <c r="BV10" s="1">
-        <v>-843.617000</v>
+        <v>-843.61699999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>44824.111418</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.451142</v>
+        <v>12.451142000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1772.510000</v>
+        <v>1772.51</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1121.830000</v>
+        <v>-1121.83</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>44835.968283</v>
+        <v>44835.968283000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>12.454436</v>
+        <v>12.454435999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2194.880000</v>
+        <v>2194.88</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1799.750000</v>
+        <v>-1799.75</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>44664.552223</v>
+        <v>44664.552222999999</v>
       </c>
       <c r="B11" s="1">
-        <v>12.406820</v>
+        <v>12.40682</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.610000</v>
+        <v>1149.6099999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-235.787000</v>
+        <v>-235.78700000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>44674.924241</v>
+        <v>44674.924241000001</v>
       </c>
       <c r="G11" s="1">
         <v>12.409701</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.410000</v>
+        <v>1169.4100000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-200.156000</v>
+        <v>-200.15600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>44685.312450</v>
+        <v>44685.312449999998</v>
       </c>
       <c r="L11" s="1">
         <v>12.412587</v>
       </c>
       <c r="M11" s="1">
-        <v>1196.380000</v>
+        <v>1196.3800000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-143.726000</v>
+        <v>-143.726</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>44695.782692</v>
+        <v>44695.782692000001</v>
       </c>
       <c r="Q11" s="1">
         <v>12.415495</v>
       </c>
       <c r="R11" s="1">
-        <v>1204.860000</v>
+        <v>1204.8599999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-124.069000</v>
+        <v>-124.069</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>44706.286776</v>
+        <v>44706.286776000001</v>
       </c>
       <c r="V11" s="1">
-        <v>12.418413</v>
+        <v>12.418412999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.330000</v>
+        <v>1213.33</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.204000</v>
+        <v>-105.20399999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>44716.757359</v>
+        <v>44716.757359000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.421321</v>
+        <v>12.421321000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1221.770000</v>
+        <v>1221.77</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.594000</v>
+        <v>-89.593999999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>44727.616732</v>
+        <v>44727.616732000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.424338</v>
+        <v>12.424338000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1226.940000</v>
+        <v>1226.94</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.754800</v>
+        <v>-85.754800000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>44738.142364</v>
+        <v>44738.142363999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>12.427262</v>
+        <v>12.427262000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.625700</v>
+        <v>-89.625699999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>44748.861871</v>
+        <v>44748.861871000001</v>
       </c>
       <c r="AP11" s="1">
         <v>12.430239</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.892000</v>
+        <v>-101.892</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>44759.538754</v>
+        <v>44759.538754000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>12.433205</v>
+        <v>12.433204999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.700000</v>
+        <v>1252.7</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.580000</v>
+        <v>-121.58</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>44770.851506</v>
+        <v>44770.851505999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>12.436348</v>
+        <v>12.436348000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.324000</v>
+        <v>-139.32400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>44781.470885</v>
+        <v>44781.470885000002</v>
       </c>
       <c r="BE11" s="1">
         <v>12.439297</v>
       </c>
       <c r="BF11" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.379000</v>
+        <v>-222.37899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>44792.769220</v>
+        <v>44792.769220000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.442436</v>
+        <v>12.442436000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1371.260000</v>
+        <v>1371.26</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.853000</v>
+        <v>-360.85300000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>44803.397493</v>
+        <v>44803.397492999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>12.445388</v>
+        <v>12.445387999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.960000</v>
+        <v>1485.96</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-587.104000</v>
+        <v>-587.10400000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>44813.878993</v>
+        <v>44813.878992999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>12.448300</v>
+        <v>12.4483</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.190000</v>
+        <v>1619.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-843.448000</v>
+        <v>-843.44799999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>44824.543434</v>
+        <v>44824.543433999999</v>
       </c>
       <c r="BY11" s="1">
         <v>12.451262</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.290000</v>
+        <v>1772.29</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1121.900000</v>
+        <v>-1121.9000000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>44836.496027</v>
+        <v>44836.496027000001</v>
       </c>
       <c r="CD11" s="1">
         <v>12.454582</v>
       </c>
       <c r="CE11" s="1">
-        <v>2196.870000</v>
+        <v>2196.87</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1800.880000</v>
+        <v>-1800.88</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>44664.834621</v>
+        <v>44664.834621000002</v>
       </c>
       <c r="B12" s="1">
-        <v>12.406899</v>
+        <v>12.406898999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.980000</v>
+        <v>1149.98</v>
       </c>
       <c r="D12" s="1">
-        <v>-236.081000</v>
+        <v>-236.08099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>44675.267982</v>
+        <v>44675.267981999998</v>
       </c>
       <c r="G12" s="1">
-        <v>12.409797</v>
+        <v>12.409796999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1169.580000</v>
+        <v>1169.58</v>
       </c>
       <c r="I12" s="1">
-        <v>-200.807000</v>
+        <v>-200.80699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>44685.660177</v>
+        <v>44685.660176999998</v>
       </c>
       <c r="L12" s="1">
-        <v>12.412683</v>
+        <v>12.412682999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1196.370000</v>
+        <v>1196.3699999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-143.497000</v>
+        <v>-143.49700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>44696.132676</v>
+        <v>44696.132676000001</v>
       </c>
       <c r="Q12" s="1">
         <v>12.415592</v>
       </c>
       <c r="R12" s="1">
-        <v>1204.950000</v>
+        <v>1204.95</v>
       </c>
       <c r="S12" s="1">
-        <v>-123.978000</v>
+        <v>-123.97799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>44706.972245</v>
+        <v>44706.972244999997</v>
       </c>
       <c r="V12" s="1">
-        <v>12.418603</v>
+        <v>12.418602999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.220000</v>
+        <v>1213.22</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.218000</v>
+        <v>-105.218</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>44717.451265</v>
+        <v>44717.451265000003</v>
       </c>
       <c r="AA12" s="1">
         <v>12.421514</v>
       </c>
       <c r="AB12" s="1">
-        <v>1221.830000</v>
+        <v>1221.83</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.658300</v>
+        <v>-89.658299999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>44727.960457</v>
+        <v>44727.960457000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.424433</v>
+        <v>12.424433000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1226.880000</v>
+        <v>1226.8800000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.748800</v>
+        <v>-85.748800000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>44738.491516</v>
+        <v>44738.491516000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>12.427359</v>
+        <v>12.427358999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.632200</v>
+        <v>-89.632199999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>44749.242301</v>
+        <v>44749.242300999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.430345</v>
+        <v>12.430345000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.923000</v>
+        <v>-101.923</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>44760.223262</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.433395</v>
+        <v>12.433395000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.710000</v>
+        <v>1252.71</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.576000</v>
+        <v>-121.57599999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>44771.286993</v>
+        <v>44771.286993000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>12.436469</v>
+        <v>12.436469000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.313000</v>
+        <v>-139.31299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>44781.891459</v>
+        <v>44781.891458999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.439414</v>
+        <v>12.439413999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1301.460000</v>
+        <v>1301.46</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.360000</v>
+        <v>-222.36</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>44793.175940</v>
+        <v>44793.175940000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.442549</v>
       </c>
       <c r="BK12" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.902000</v>
+        <v>-360.90199999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>44803.795818</v>
+        <v>44803.795817999999</v>
       </c>
       <c r="BO12" s="1">
         <v>12.445499</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.980000</v>
+        <v>1485.98</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-587.071000</v>
+        <v>-587.07100000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>44814.305027</v>
+        <v>44814.305027000002</v>
       </c>
       <c r="BT12" s="1">
         <v>12.448418</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.250000</v>
+        <v>1619.25</v>
       </c>
       <c r="BV12" s="1">
-        <v>-843.301000</v>
+        <v>-843.30100000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>44824.961572</v>
@@ -3276,45 +3692,45 @@
         <v>12.451378</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.390000</v>
+        <v>1772.39</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1121.980000</v>
+        <v>-1121.98</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>44837.012857</v>
+        <v>44837.012857000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.454726</v>
+        <v>12.454726000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2197.220000</v>
+        <v>2197.2199999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1798.690000</v>
+        <v>-1798.69</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>44665.176364</v>
+        <v>44665.176363999999</v>
       </c>
       <c r="B13" s="1">
         <v>12.406993</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.980000</v>
+        <v>1149.98</v>
       </c>
       <c r="D13" s="1">
-        <v>-235.711000</v>
+        <v>-235.71100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>44675.615695</v>
@@ -3323,133 +3739,133 @@
         <v>12.409893</v>
       </c>
       <c r="H13" s="1">
-        <v>1168.970000</v>
+        <v>1168.97</v>
       </c>
       <c r="I13" s="1">
-        <v>-199.925000</v>
+        <v>-199.92500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>44686.354084</v>
+        <v>44686.354083999999</v>
       </c>
       <c r="L13" s="1">
-        <v>12.412876</v>
+        <v>12.412876000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1196.080000</v>
+        <v>1196.08</v>
       </c>
       <c r="N13" s="1">
-        <v>-143.438000</v>
+        <v>-143.43799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>44696.828102</v>
+        <v>44696.828101999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.415786</v>
+        <v>12.415786000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1204.940000</v>
+        <v>1204.94</v>
       </c>
       <c r="S13" s="1">
-        <v>-124.033000</v>
+        <v>-124.033</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>44707.316470</v>
+        <v>44707.316469999998</v>
       </c>
       <c r="V13" s="1">
         <v>12.418699</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.330000</v>
+        <v>1213.33</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.183000</v>
+        <v>-105.18300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>44717.800439</v>
+        <v>44717.800438999999</v>
       </c>
       <c r="AA13" s="1">
         <v>12.421611</v>
       </c>
       <c r="AB13" s="1">
-        <v>1221.690000</v>
+        <v>1221.69</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.650000</v>
+        <v>-89.65</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>44728.304681</v>
+        <v>44728.304681000001</v>
       </c>
       <c r="AF13" s="1">
         <v>12.424529</v>
       </c>
       <c r="AG13" s="1">
-        <v>1226.940000</v>
+        <v>1226.94</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.763600</v>
+        <v>-85.763599999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>44739.147228</v>
+        <v>44739.147228000002</v>
       </c>
       <c r="AK13" s="1">
         <v>12.427541</v>
       </c>
       <c r="AL13" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.635100</v>
+        <v>-89.635099999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>44749.939180</v>
+        <v>44749.939180000001</v>
       </c>
       <c r="AP13" s="1">
         <v>12.430539</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1242.600000</v>
+        <v>1242.5999999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.936000</v>
+        <v>-101.93600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>44760.666656</v>
+        <v>44760.666656000001</v>
       </c>
       <c r="AU13" s="1">
         <v>12.433519</v>
       </c>
       <c r="AV13" s="1">
-        <v>1252.710000</v>
+        <v>1252.71</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.596000</v>
+        <v>-121.596</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>44771.648577</v>
@@ -3458,363 +3874,363 @@
         <v>12.436569</v>
       </c>
       <c r="BA13" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.309000</v>
+        <v>-139.309</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>44782.279863</v>
+        <v>44782.279863000003</v>
       </c>
       <c r="BE13" s="1">
         <v>12.439522</v>
       </c>
       <c r="BF13" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.354000</v>
+        <v>-222.35400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>44793.548436</v>
+        <v>44793.548435999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>12.442652</v>
+        <v>12.442652000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.865000</v>
+        <v>-360.86500000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>44804.219862</v>
+        <v>44804.219861999998</v>
       </c>
       <c r="BO13" s="1">
         <v>12.445617</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.000000</v>
+        <v>1486</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-587.018000</v>
+        <v>-587.01800000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>44814.737032</v>
+        <v>44814.737031999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>12.448538</v>
+        <v>12.448537999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.250000</v>
+        <v>1619.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-843.189000</v>
+        <v>-843.18899999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>44825.386137</v>
+        <v>44825.386137000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.451496</v>
+        <v>12.451496000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.590000</v>
+        <v>1772.59</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1121.870000</v>
+        <v>-1121.8699999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>44837.534153</v>
+        <v>44837.534153000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.454871</v>
+        <v>12.454871000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2195.090000</v>
+        <v>2195.09</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1798.860000</v>
+        <v>-1798.86</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>44665.515169</v>
+        <v>44665.515168999998</v>
       </c>
       <c r="B14" s="1">
         <v>12.407088</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.560000</v>
+        <v>1149.56</v>
       </c>
       <c r="D14" s="1">
-        <v>-235.879000</v>
+        <v>-235.87899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>44676.308574</v>
+        <v>44676.308574000002</v>
       </c>
       <c r="G14" s="1">
         <v>12.410086</v>
       </c>
       <c r="H14" s="1">
-        <v>1168.620000</v>
+        <v>1168.6199999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-200.737000</v>
+        <v>-200.73699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>44686.700038</v>
+        <v>44686.700038000003</v>
       </c>
       <c r="L14" s="1">
         <v>12.412972</v>
       </c>
       <c r="M14" s="1">
-        <v>1196.410000</v>
+        <v>1196.4100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-143.528000</v>
+        <v>-143.52799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>44697.176782</v>
+        <v>44697.176782000002</v>
       </c>
       <c r="Q14" s="1">
         <v>12.415882</v>
       </c>
       <c r="R14" s="1">
-        <v>1204.980000</v>
+        <v>1204.98</v>
       </c>
       <c r="S14" s="1">
-        <v>-124.016000</v>
+        <v>-124.01600000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>44707.663668</v>
+        <v>44707.663668000001</v>
       </c>
       <c r="V14" s="1">
-        <v>12.418795</v>
+        <v>12.418794999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1213.250000</v>
+        <v>1213.25</v>
       </c>
       <c r="X14" s="1">
-        <v>-105.083000</v>
+        <v>-105.083</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>44718.460086</v>
+        <v>44718.460085999999</v>
       </c>
       <c r="AA14" s="1">
         <v>12.421794</v>
       </c>
       <c r="AB14" s="1">
-        <v>1221.720000</v>
+        <v>1221.72</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.716400</v>
+        <v>-89.716399999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>44728.961880</v>
+        <v>44728.961880000003</v>
       </c>
       <c r="AF14" s="1">
         <v>12.424712</v>
       </c>
       <c r="AG14" s="1">
-        <v>1226.970000</v>
+        <v>1226.97</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.749900</v>
+        <v>-85.749899999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>44739.536586</v>
+        <v>44739.536586000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.427649</v>
+        <v>12.427649000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1234.420000</v>
+        <v>1234.42</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.659300</v>
+        <v>-89.659300000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>44750.317629</v>
+        <v>44750.317628999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>12.430644</v>
+        <v>12.430643999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.933000</v>
+        <v>-101.93300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>44761.031710</v>
+        <v>44761.031710000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>12.433620</v>
+        <v>12.433619999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.591000</v>
+        <v>-121.59099999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>44772.004742</v>
+        <v>44772.004741999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>12.436668</v>
+        <v>12.436667999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.336000</v>
+        <v>-139.33600000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>44782.636958</v>
+        <v>44782.636958000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.439621</v>
+        <v>12.439621000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1301.420000</v>
+        <v>1301.42</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.382000</v>
+        <v>-222.38200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>44793.970035</v>
+        <v>44793.970034999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>12.442769</v>
       </c>
       <c r="BK14" s="1">
-        <v>1371.220000</v>
+        <v>1371.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.889000</v>
+        <v>-360.88900000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>44804.615205</v>
+        <v>44804.615205000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>12.445726</v>
+        <v>12.445726000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.980000</v>
+        <v>1485.98</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-586.992000</v>
+        <v>-586.99199999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>44815.133334</v>
+        <v>44815.133333999998</v>
       </c>
       <c r="BT14" s="1">
         <v>12.448648</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.300000</v>
+        <v>1619.3</v>
       </c>
       <c r="BV14" s="1">
-        <v>-843.080000</v>
+        <v>-843.08</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>44825.821128</v>
+        <v>44825.821128000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.451617</v>
+        <v>12.451617000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.380000</v>
+        <v>1772.38</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1122.010000</v>
+        <v>-1122.01</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>44838.050984</v>
+        <v>44838.050984000001</v>
       </c>
       <c r="CD14" s="1">
         <v>12.455014</v>
       </c>
       <c r="CE14" s="1">
-        <v>2196.120000</v>
+        <v>2196.12</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1801.100000</v>
+        <v>-1801.1</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>44666.189198</v>
       </c>
@@ -3822,58 +4238,58 @@
         <v>12.407275</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.790000</v>
+        <v>1149.79</v>
       </c>
       <c r="D15" s="1">
-        <v>-236.110000</v>
+        <v>-236.11</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>44676.652799</v>
+        <v>44676.652799000003</v>
       </c>
       <c r="G15" s="1">
         <v>12.410181</v>
       </c>
       <c r="H15" s="1">
-        <v>1168.320000</v>
+        <v>1168.32</v>
       </c>
       <c r="I15" s="1">
-        <v>-200.218000</v>
+        <v>-200.21799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>44687.045008</v>
+        <v>44687.045008000001</v>
       </c>
       <c r="L15" s="1">
-        <v>12.413068</v>
+        <v>12.413068000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1196.400000</v>
+        <v>1196.4000000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-143.765000</v>
+        <v>-143.76499999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>44697.522963</v>
+        <v>44697.522963000003</v>
       </c>
       <c r="Q15" s="1">
         <v>12.415979</v>
       </c>
       <c r="R15" s="1">
-        <v>1204.910000</v>
+        <v>1204.9100000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-124.068000</v>
+        <v>-124.068</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>44708.330789</v>
@@ -3882,88 +4298,88 @@
         <v>12.418981</v>
       </c>
       <c r="W15" s="1">
-        <v>1213.080000</v>
+        <v>1213.08</v>
       </c>
       <c r="X15" s="1">
-        <v>-105.108000</v>
+        <v>-105.108</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>44718.842532</v>
+        <v>44718.842532000002</v>
       </c>
       <c r="AA15" s="1">
         <v>12.421901</v>
       </c>
       <c r="AB15" s="1">
-        <v>1221.880000</v>
+        <v>1221.8800000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.713600</v>
+        <v>-89.7136</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>44729.335368</v>
       </c>
       <c r="AF15" s="1">
-        <v>12.424815</v>
+        <v>12.424815000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1226.920000</v>
+        <v>1226.92</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.739500</v>
+        <v>-85.739500000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>44739.882331</v>
+        <v>44739.882331000001</v>
       </c>
       <c r="AK15" s="1">
         <v>12.427745</v>
       </c>
       <c r="AL15" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.641500</v>
+        <v>-89.641499999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>44750.678717</v>
+        <v>44750.678717000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.430744</v>
+        <v>12.430744000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.918000</v>
+        <v>-101.91800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>44761.398782</v>
+        <v>44761.398781999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>12.433722</v>
+        <v>12.433721999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.690000</v>
+        <v>1252.69</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.576000</v>
+        <v>-121.57599999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>44772.425851</v>
@@ -3972,195 +4388,195 @@
         <v>12.436785</v>
       </c>
       <c r="BA15" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.335000</v>
+        <v>-139.33500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>44783.361632</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.439823</v>
+        <v>12.439823000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.344000</v>
+        <v>-222.34399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>44794.324706</v>
+        <v>44794.324705999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>12.442868</v>
+        <v>12.442868000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.845000</v>
+        <v>-360.84500000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>44805.035812</v>
+        <v>44805.035812000002</v>
       </c>
       <c r="BO15" s="1">
         <v>12.445843</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.010000</v>
+        <v>1486.01</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-587.063000</v>
+        <v>-587.06299999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>44815.569815</v>
+        <v>44815.569815000003</v>
       </c>
       <c r="BT15" s="1">
         <v>12.448769</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.250000</v>
+        <v>1619.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-842.831000</v>
+        <v>-842.83100000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>44826.227848</v>
+        <v>44826.227848000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.451730</v>
+        <v>12.45173</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.320000</v>
+        <v>1772.32</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1121.870000</v>
+        <v>-1121.8699999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>44838.569800</v>
+        <v>44838.569799999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>12.455158</v>
+        <v>12.455158000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2197.510000</v>
+        <v>2197.5100000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1799.530000</v>
+        <v>-1799.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>44666.542844</v>
+        <v>44666.542844000003</v>
       </c>
       <c r="B16" s="1">
         <v>12.407373</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.400000</v>
+        <v>1149.4000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-236.083000</v>
+        <v>-236.083</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>44676.989583</v>
+        <v>44676.989583000002</v>
       </c>
       <c r="G16" s="1">
         <v>12.410275</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.030000</v>
+        <v>1169.03</v>
       </c>
       <c r="I16" s="1">
-        <v>-200.843000</v>
+        <v>-200.84299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>44687.705647</v>
+        <v>44687.705647000003</v>
       </c>
       <c r="L16" s="1">
         <v>12.413252</v>
       </c>
       <c r="M16" s="1">
-        <v>1196.200000</v>
+        <v>1196.2</v>
       </c>
       <c r="N16" s="1">
-        <v>-143.386000</v>
+        <v>-143.386</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>44698.187642</v>
+        <v>44698.187641999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.416163</v>
+        <v>12.416162999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1204.890000</v>
+        <v>1204.8900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-123.979000</v>
+        <v>-123.979</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>44708.701795</v>
+        <v>44708.701795000001</v>
       </c>
       <c r="V16" s="1">
         <v>12.419084</v>
       </c>
       <c r="W16" s="1">
-        <v>1213.320000</v>
+        <v>1213.32</v>
       </c>
       <c r="X16" s="1">
-        <v>-104.990000</v>
+        <v>-104.99</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>44719.192677</v>
+        <v>44719.192676999999</v>
       </c>
       <c r="AA16" s="1">
         <v>12.421998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1221.780000</v>
+        <v>1221.78</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.708200</v>
+        <v>-89.708200000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>44729.679095</v>
@@ -4169,587 +4585,587 @@
         <v>12.424911</v>
       </c>
       <c r="AG16" s="1">
-        <v>1226.950000</v>
+        <v>1226.95</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.749000</v>
+        <v>-85.748999999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>44740.231514</v>
+        <v>44740.231513999999</v>
       </c>
       <c r="AK16" s="1">
         <v>12.427842</v>
       </c>
       <c r="AL16" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.617800</v>
+        <v>-89.617800000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>44751.108251</v>
+        <v>44751.108250999998</v>
       </c>
       <c r="AP16" s="1">
         <v>12.430863</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1242.620000</v>
+        <v>1242.6199999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.910000</v>
+        <v>-101.91</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>44761.828781</v>
+        <v>44761.828780999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.433841</v>
+        <v>12.433840999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1252.700000</v>
+        <v>1252.7</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.618000</v>
+        <v>-121.61799999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>44772.721957</v>
+        <v>44772.721957000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12.436867</v>
+        <v>12.436866999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.301000</v>
+        <v>-139.30099999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>44783.749968</v>
+        <v>44783.749967999996</v>
       </c>
       <c r="BE16" s="1">
         <v>12.439931</v>
       </c>
       <c r="BF16" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.390000</v>
+        <v>-222.39</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>44794.697206</v>
+        <v>44794.697205999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>12.442971</v>
       </c>
       <c r="BK16" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.889000</v>
+        <v>-360.88900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>44805.431126</v>
+        <v>44805.431126000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.445953</v>
+        <v>12.445952999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.000000</v>
+        <v>1486</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-587.072000</v>
+        <v>-587.072</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>44816.180389</v>
+        <v>44816.180389000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>12.448939</v>
+        <v>12.448938999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.200000</v>
+        <v>1619.2</v>
       </c>
       <c r="BV16" s="1">
-        <v>-842.902000</v>
+        <v>-842.90200000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>44826.676764</v>
+        <v>44826.676764000003</v>
       </c>
       <c r="BY16" s="1">
         <v>12.451855</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.470000</v>
+        <v>1772.47</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1121.990000</v>
+        <v>-1121.99</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>44839.086417</v>
+        <v>44839.086416999999</v>
       </c>
       <c r="CD16" s="1">
         <v>12.455302</v>
       </c>
       <c r="CE16" s="1">
-        <v>2196.800000</v>
+        <v>2196.8000000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1800.220000</v>
+        <v>-1800.22</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>44666.881610</v>
+        <v>44666.881609999997</v>
       </c>
       <c r="B17" s="1">
         <v>12.407467</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.650000</v>
+        <v>1149.6500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-236.000000</v>
+        <v>-236</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>44677.655740</v>
+        <v>44677.655740000002</v>
       </c>
       <c r="G17" s="1">
-        <v>12.410460</v>
+        <v>12.41046</v>
       </c>
       <c r="H17" s="1">
-        <v>1168.540000</v>
+        <v>1168.54</v>
       </c>
       <c r="I17" s="1">
-        <v>-200.134000</v>
+        <v>-200.13399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>44688.083322</v>
+        <v>44688.083321999999</v>
       </c>
       <c r="L17" s="1">
         <v>12.413356</v>
       </c>
       <c r="M17" s="1">
-        <v>1196.160000</v>
+        <v>1196.1600000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-143.711000</v>
+        <v>-143.71100000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>44698.570018</v>
+        <v>44698.570017999999</v>
       </c>
       <c r="Q17" s="1">
         <v>12.416269</v>
       </c>
       <c r="R17" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="S17" s="1">
-        <v>-123.977000</v>
+        <v>-123.977</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>44709.047506</v>
+        <v>44709.047506000003</v>
       </c>
       <c r="V17" s="1">
-        <v>12.419180</v>
+        <v>12.419180000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1213.150000</v>
+        <v>1213.1500000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-105.182000</v>
+        <v>-105.182</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>44719.538389</v>
+        <v>44719.538389000001</v>
       </c>
       <c r="AA17" s="1">
         <v>12.422094</v>
       </c>
       <c r="AB17" s="1">
-        <v>1221.730000</v>
+        <v>1221.73</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.565400</v>
+        <v>-89.565399999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>44730.022823</v>
+        <v>44730.022822999999</v>
       </c>
       <c r="AF17" s="1">
         <v>12.425006</v>
       </c>
       <c r="AG17" s="1">
-        <v>1226.950000</v>
+        <v>1226.95</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.727900</v>
+        <v>-85.727900000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>44740.654073</v>
+        <v>44740.654072999998</v>
       </c>
       <c r="AK17" s="1">
         <v>12.427959</v>
       </c>
       <c r="AL17" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.634100</v>
+        <v>-89.634100000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>44751.399899</v>
+        <v>44751.399898999996</v>
       </c>
       <c r="AP17" s="1">
         <v>12.430944</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1242.580000</v>
+        <v>1242.58</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.925000</v>
+        <v>-101.925</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>44762.126876</v>
+        <v>44762.126876000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.433924</v>
+        <v>12.433923999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1252.710000</v>
+        <v>1252.71</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.596000</v>
+        <v>-121.596</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>44773.081055</v>
+        <v>44773.081055000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>12.436967</v>
+        <v>12.436966999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.300000</v>
+        <v>-139.30000000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>44784.111551</v>
+        <v>44784.111551000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.440031</v>
+        <v>12.440030999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1301.450000</v>
+        <v>1301.45</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.377000</v>
+        <v>-222.37700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>44795.074625</v>
+        <v>44795.074625000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>12.443076</v>
       </c>
       <c r="BK17" s="1">
-        <v>1371.260000</v>
+        <v>1371.26</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.905000</v>
+        <v>-360.90499999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>44805.851699</v>
+        <v>44805.851698999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.446070</v>
+        <v>12.446070000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.980000</v>
+        <v>1485.98</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-587.037000</v>
+        <v>-587.03700000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>44816.378294</v>
+        <v>44816.378294000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>12.448994</v>
+        <v>12.448994000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.170000</v>
+        <v>1619.17</v>
       </c>
       <c r="BV17" s="1">
-        <v>-842.616000</v>
+        <v>-842.61599999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>44827.099320</v>
+        <v>44827.099320000001</v>
       </c>
       <c r="BY17" s="1">
         <v>12.451972</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.500000</v>
+        <v>1772.5</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1121.890000</v>
+        <v>-1121.8900000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>44839.640201</v>
+        <v>44839.640201000002</v>
       </c>
       <c r="CD17" s="1">
         <v>12.455456</v>
       </c>
       <c r="CE17" s="1">
-        <v>2196.370000</v>
+        <v>2196.37</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1800.880000</v>
+        <v>-1800.88</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>44667.573529</v>
+        <v>44667.573529000001</v>
       </c>
       <c r="B18" s="1">
-        <v>12.407659</v>
+        <v>12.407659000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.750000</v>
+        <v>1149.75</v>
       </c>
       <c r="D18" s="1">
-        <v>-235.832000</v>
+        <v>-235.83199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>44678.032173</v>
       </c>
       <c r="G18" s="1">
-        <v>12.410564</v>
+        <v>12.410564000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1168.700000</v>
+        <v>1168.7</v>
       </c>
       <c r="I18" s="1">
-        <v>-200.270000</v>
+        <v>-200.27</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>44688.426830</v>
+        <v>44688.426829999997</v>
       </c>
       <c r="L18" s="1">
-        <v>12.413452</v>
+        <v>12.413451999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1196.350000</v>
+        <v>1196.3499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-143.610000</v>
+        <v>-143.61000000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>44698.919728</v>
+        <v>44698.919728000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>12.416367</v>
+        <v>12.416366999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1204.890000</v>
+        <v>1204.8900000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-123.990000</v>
+        <v>-123.99</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>44709.391235</v>
+        <v>44709.391235000003</v>
       </c>
       <c r="V18" s="1">
-        <v>12.419275</v>
+        <v>12.419275000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.230000</v>
+        <v>1213.23</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.249000</v>
+        <v>-105.249</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>44719.968916</v>
+        <v>44719.968915999998</v>
       </c>
       <c r="AA18" s="1">
         <v>12.422214</v>
       </c>
       <c r="AB18" s="1">
-        <v>1221.850000</v>
+        <v>1221.8499999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.596400</v>
+        <v>-89.596400000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>44730.455334</v>
+        <v>44730.455333999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.425126</v>
+        <v>12.425126000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1226.890000</v>
+        <v>1226.8900000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.764300</v>
+        <v>-85.764300000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>44740.938281</v>
+        <v>44740.938281000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.428038</v>
+        <v>12.428038000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.614300</v>
+        <v>-89.6143</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>44751.760987</v>
+        <v>44751.760987000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.431045</v>
+        <v>12.431044999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1242.620000</v>
+        <v>1242.6199999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.927000</v>
+        <v>-101.92700000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>44762.488956</v>
+        <v>44762.488956000001</v>
       </c>
       <c r="AU18" s="1">
         <v>12.434025</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.700000</v>
+        <v>1252.7</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.584000</v>
+        <v>-121.584</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>44773.442446</v>
+        <v>44773.442446000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.437067</v>
+        <v>12.437067000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1261.170000</v>
+        <v>1261.17</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.343000</v>
+        <v>-139.34299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>44784.833734</v>
@@ -4758,120 +5174,120 @@
         <v>12.440232</v>
       </c>
       <c r="BF18" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.394000</v>
+        <v>-222.39400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>44795.829536</v>
+        <v>44795.829535999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.443286</v>
+        <v>12.443286000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.880000</v>
+        <v>-360.88</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>44806.252962</v>
+        <v>44806.252961999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.446181</v>
+        <v>12.446180999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.970000</v>
+        <v>1485.97</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-587.010000</v>
+        <v>-587.01</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>44816.788496</v>
+        <v>44816.788496000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.449108</v>
+        <v>12.449108000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.130000</v>
+        <v>1619.13</v>
       </c>
       <c r="BV18" s="1">
-        <v>-842.592000</v>
+        <v>-842.59199999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>44827.521943</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.452089</v>
+        <v>12.452089000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.360000</v>
+        <v>1772.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1121.920000</v>
+        <v>-1121.92</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>44840.479397</v>
+        <v>44840.479397000003</v>
       </c>
       <c r="CD18" s="1">
         <v>12.455689</v>
       </c>
       <c r="CE18" s="1">
-        <v>2197.760000</v>
+        <v>2197.7600000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1799.630000</v>
+        <v>-1799.63</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>44667.914281</v>
+        <v>44667.914280999998</v>
       </c>
       <c r="B19" s="1">
-        <v>12.407754</v>
+        <v>12.407754000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.540000</v>
+        <v>1149.54</v>
       </c>
       <c r="D19" s="1">
-        <v>-236.121000</v>
+        <v>-236.12100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>44678.377388</v>
+        <v>44678.377388000001</v>
       </c>
       <c r="G19" s="1">
-        <v>12.410660</v>
+        <v>12.41066</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.170000</v>
+        <v>1169.17</v>
       </c>
       <c r="I19" s="1">
-        <v>-199.571000</v>
+        <v>-199.571</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>44688.773039</v>
@@ -4880,465 +5296,465 @@
         <v>12.413548</v>
       </c>
       <c r="M19" s="1">
-        <v>1196.470000</v>
+        <v>1196.47</v>
       </c>
       <c r="N19" s="1">
-        <v>-143.814000</v>
+        <v>-143.81399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>44699.270368</v>
+        <v>44699.270367999998</v>
       </c>
       <c r="Q19" s="1">
         <v>12.416464</v>
       </c>
       <c r="R19" s="1">
-        <v>1204.940000</v>
+        <v>1204.94</v>
       </c>
       <c r="S19" s="1">
-        <v>-124.016000</v>
+        <v>-124.01600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>44709.808866</v>
+        <v>44709.808865999999</v>
       </c>
       <c r="V19" s="1">
-        <v>12.419391</v>
+        <v>12.419390999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1213.280000</v>
+        <v>1213.28</v>
       </c>
       <c r="X19" s="1">
-        <v>-105.251000</v>
+        <v>-105.251</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>44720.236790</v>
+        <v>44720.236790000003</v>
       </c>
       <c r="AA19" s="1">
         <v>12.422288</v>
       </c>
       <c r="AB19" s="1">
-        <v>1221.800000</v>
+        <v>1221.8</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.678200</v>
+        <v>-89.678200000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>44730.734086</v>
+        <v>44730.734085999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>12.425204</v>
+        <v>12.425204000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1226.950000</v>
+        <v>1226.95</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.783200</v>
+        <v>-85.783199999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>44741.287996</v>
+        <v>44741.287995999999</v>
       </c>
       <c r="AK19" s="1">
         <v>12.428136</v>
       </c>
       <c r="AL19" s="1">
-        <v>1234.440000</v>
+        <v>1234.44</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.638000</v>
+        <v>-89.638000000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>44752.121577</v>
+        <v>44752.121576999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.431145</v>
+        <v>12.431145000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.932000</v>
+        <v>-101.932</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>44762.852061</v>
+        <v>44762.852060999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.434126</v>
+        <v>12.434125999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.599000</v>
+        <v>-121.599</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>44774.159853</v>
+        <v>44774.159852999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>12.437267</v>
       </c>
       <c r="BA19" s="1">
-        <v>1261.250000</v>
+        <v>1261.25</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.352000</v>
+        <v>-139.352</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>44785.221600</v>
+        <v>44785.221599999997</v>
       </c>
       <c r="BE19" s="1">
         <v>12.440339</v>
       </c>
       <c r="BF19" s="1">
-        <v>1301.450000</v>
+        <v>1301.45</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.371000</v>
+        <v>-222.37100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>44796.202033</v>
+        <v>44796.202033000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>12.443389</v>
       </c>
       <c r="BK19" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.859000</v>
+        <v>-360.85899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>44806.669633</v>
+        <v>44806.669632999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.446297</v>
+        <v>12.446296999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.960000</v>
+        <v>1485.96</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-587.069000</v>
+        <v>-587.06899999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>44817.516612</v>
+        <v>44817.516611999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>12.449310</v>
+        <v>12.449310000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.000000</v>
+        <v>1619</v>
       </c>
       <c r="BV19" s="1">
-        <v>-842.511000</v>
+        <v>-842.51099999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>44828.284758</v>
+        <v>44828.284758000002</v>
       </c>
       <c r="BY19" s="1">
         <v>12.452301</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.320000</v>
+        <v>1772.32</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1122.010000</v>
+        <v>-1122.01</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>44840.720480</v>
+        <v>44840.720480000004</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.455756</v>
+        <v>12.455755999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2196.050000</v>
+        <v>2196.0500000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1797.880000</v>
+        <v>-1797.88</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>44668.255064</v>
+        <v>44668.255063999997</v>
       </c>
       <c r="B20" s="1">
-        <v>12.407849</v>
+        <v>12.407849000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.490000</v>
+        <v>1149.49</v>
       </c>
       <c r="D20" s="1">
-        <v>-235.816000</v>
+        <v>-235.816</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>44678.721147</v>
+        <v>44678.721146999997</v>
       </c>
       <c r="G20" s="1">
-        <v>12.410756</v>
+        <v>12.410755999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1168.670000</v>
+        <v>1168.67</v>
       </c>
       <c r="I20" s="1">
-        <v>-200.630000</v>
+        <v>-200.63</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>44689.188225</v>
+        <v>44689.188224999998</v>
       </c>
       <c r="L20" s="1">
         <v>12.413663</v>
       </c>
       <c r="M20" s="1">
-        <v>1196.440000</v>
+        <v>1196.44</v>
       </c>
       <c r="N20" s="1">
-        <v>-143.680000</v>
+        <v>-143.68</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>44699.706848</v>
+        <v>44699.706848000002</v>
       </c>
       <c r="Q20" s="1">
         <v>12.416585</v>
       </c>
       <c r="R20" s="1">
-        <v>1204.910000</v>
+        <v>1204.9100000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>44710.086625</v>
+        <v>44710.086625000004</v>
       </c>
       <c r="V20" s="1">
-        <v>12.419469</v>
+        <v>12.419468999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1213.160000</v>
+        <v>1213.1600000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-105.209000</v>
+        <v>-105.209</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>44720.586471</v>
+        <v>44720.586471000002</v>
       </c>
       <c r="AA20" s="1">
         <v>12.422385</v>
       </c>
       <c r="AB20" s="1">
-        <v>1221.850000</v>
+        <v>1221.8499999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.718800</v>
+        <v>-89.718800000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>44731.075860</v>
+        <v>44731.075859999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>12.425299</v>
+        <v>12.425299000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1226.910000</v>
+        <v>1226.9100000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.773700</v>
+        <v>-85.773700000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>44741.635160</v>
+        <v>44741.635159999998</v>
       </c>
       <c r="AK20" s="1">
         <v>12.428232</v>
       </c>
       <c r="AL20" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.616100</v>
+        <v>-89.616100000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>44752.840281</v>
+        <v>44752.840280999997</v>
       </c>
       <c r="AP20" s="1">
         <v>12.431345</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.884000</v>
+        <v>-101.884</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>44763.583131</v>
+        <v>44763.583130999999</v>
       </c>
       <c r="AU20" s="1">
         <v>12.434329</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.710000</v>
+        <v>1252.71</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.586000</v>
+        <v>-121.586</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>44774.514989</v>
+        <v>44774.514989000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>12.437365</v>
       </c>
       <c r="BA20" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.332000</v>
+        <v>-139.33199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>44785.583682</v>
+        <v>44785.583681999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.440440</v>
+        <v>12.440440000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.362000</v>
+        <v>-222.36199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>44796.576511</v>
+        <v>44796.576510999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>12.443493</v>
       </c>
       <c r="BK20" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.861000</v>
+        <v>-360.86099999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>44807.375410</v>
+        <v>44807.375410000001</v>
       </c>
       <c r="BO20" s="1">
         <v>12.446493</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.990000</v>
+        <v>1485.99</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-587.115000</v>
+        <v>-587.11500000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>44817.630197</v>
+        <v>44817.630196999999</v>
       </c>
       <c r="BT20" s="1">
         <v>12.449342</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.830000</v>
+        <v>1618.83</v>
       </c>
       <c r="BV20" s="1">
-        <v>-842.534000</v>
+        <v>-842.53399999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>44828.398373</v>
+        <v>44828.398373000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>12.452333</v>
+        <v>12.452332999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.370000</v>
+        <v>1772.37</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1121.820000</v>
+        <v>-1121.82</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>44841.257156</v>
@@ -5347,210 +5763,210 @@
         <v>12.455905</v>
       </c>
       <c r="CE20" s="1">
-        <v>2195.340000</v>
+        <v>2195.34</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1800.940000</v>
+        <v>-1800.94</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>44668.678658</v>
+        <v>44668.678657999997</v>
       </c>
       <c r="B21" s="1">
         <v>12.407966</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.670000</v>
+        <v>1149.67</v>
       </c>
       <c r="D21" s="1">
-        <v>-235.551000</v>
+        <v>-235.55099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>44679.143706</v>
+        <v>44679.143706000003</v>
       </c>
       <c r="G21" s="1">
         <v>12.410873</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.530000</v>
+        <v>1169.53</v>
       </c>
       <c r="I21" s="1">
-        <v>-200.567000</v>
+        <v>-200.56700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>44689.483316</v>
+        <v>44689.483315999998</v>
       </c>
       <c r="L21" s="1">
         <v>12.413745</v>
       </c>
       <c r="M21" s="1">
-        <v>1196.390000</v>
+        <v>1196.3900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-143.540000</v>
+        <v>-143.54</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>44699.975183</v>
+        <v>44699.975183000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.416660</v>
+        <v>12.41666</v>
       </c>
       <c r="R21" s="1">
-        <v>1204.980000</v>
+        <v>1204.98</v>
       </c>
       <c r="S21" s="1">
-        <v>-124.003000</v>
+        <v>-124.003</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>44710.434853</v>
+        <v>44710.434852999999</v>
       </c>
       <c r="V21" s="1">
         <v>12.419565</v>
       </c>
       <c r="W21" s="1">
-        <v>1213.250000</v>
+        <v>1213.25</v>
       </c>
       <c r="X21" s="1">
-        <v>-105.106000</v>
+        <v>-105.10599999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>44720.937603</v>
+        <v>44720.937602999998</v>
       </c>
       <c r="AA21" s="1">
         <v>12.422483</v>
       </c>
       <c r="AB21" s="1">
-        <v>1221.780000</v>
+        <v>1221.78</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.622000</v>
+        <v>-89.622</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>44731.420053</v>
+        <v>44731.420053000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.425394</v>
+        <v>12.425394000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1226.940000</v>
+        <v>1226.94</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.778200</v>
+        <v>-85.778199999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>44742.336007</v>
+        <v>44742.336006999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.428427</v>
+        <v>12.428426999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1234.470000</v>
+        <v>1234.47</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.639200</v>
+        <v>-89.639200000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>44753.200874</v>
+        <v>44753.200874000002</v>
       </c>
       <c r="AP21" s="1">
         <v>12.431445</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.914000</v>
+        <v>-101.914</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>44763.950170</v>
+        <v>44763.950169999996</v>
       </c>
       <c r="AU21" s="1">
         <v>12.434431</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.569000</v>
+        <v>-121.569</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>44774.876044</v>
+        <v>44774.876043999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>12.437466</v>
+        <v>12.437466000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.294000</v>
+        <v>-139.29400000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>44786.257953</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.440627</v>
+        <v>12.440626999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1301.460000</v>
+        <v>1301.46</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.379000</v>
+        <v>-222.37899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>44797.271406</v>
       </c>
       <c r="BJ21" s="1">
-        <v>12.443687</v>
+        <v>12.443687000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.879000</v>
+        <v>-360.87900000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>44807.502881</v>
@@ -5559,240 +5975,240 @@
         <v>12.446529</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.020000</v>
+        <v>1486.02</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-587.116000</v>
+        <v>-587.11599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>44818.063732</v>
+        <v>44818.063732000002</v>
       </c>
       <c r="BT21" s="1">
         <v>12.449462</v>
       </c>
       <c r="BU21" s="1">
-        <v>1618.670000</v>
+        <v>1618.67</v>
       </c>
       <c r="BV21" s="1">
-        <v>-842.518000</v>
+        <v>-842.51800000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>44828.841800</v>
+        <v>44828.841800000002</v>
       </c>
       <c r="BY21" s="1">
         <v>12.452456</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.310000</v>
+        <v>1772.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1121.820000</v>
+        <v>-1121.82</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>44841.793828</v>
+        <v>44841.793828000002</v>
       </c>
       <c r="CD21" s="1">
         <v>12.456054</v>
       </c>
       <c r="CE21" s="1">
-        <v>2197.180000</v>
+        <v>2197.1799999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1798.520000</v>
+        <v>-1798.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>44668.957367</v>
+        <v>44668.957367000003</v>
       </c>
       <c r="B22" s="1">
         <v>12.408044</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.500000</v>
+        <v>1149.5</v>
       </c>
       <c r="D22" s="1">
-        <v>-236.041000</v>
+        <v>-236.041</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>44679.413033</v>
+        <v>44679.413032999997</v>
       </c>
       <c r="G22" s="1">
-        <v>12.410948</v>
+        <v>12.410947999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.510000</v>
+        <v>1169.51</v>
       </c>
       <c r="I22" s="1">
-        <v>-199.810000</v>
+        <v>-199.81</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>44689.831500</v>
+        <v>44689.8315</v>
       </c>
       <c r="L22" s="1">
-        <v>12.413842</v>
+        <v>12.413842000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1196.400000</v>
+        <v>1196.4000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-143.898000</v>
+        <v>-143.898</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>44700.351682</v>
       </c>
       <c r="Q22" s="1">
-        <v>12.416764</v>
+        <v>12.416764000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1204.880000</v>
+        <v>1204.8800000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-123.992000</v>
+        <v>-123.992</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>44710.774080</v>
+        <v>44710.774080000003</v>
       </c>
       <c r="V22" s="1">
-        <v>12.419659</v>
+        <v>12.419658999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.370000</v>
+        <v>1213.3699999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.193000</v>
+        <v>-105.193</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>44721.632002</v>
+        <v>44721.632001999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>12.422676</v>
+        <v>12.422675999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1221.890000</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.705000</v>
+        <v>-89.704999999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>44732.106548</v>
+        <v>44732.106548000003</v>
       </c>
       <c r="AF22" s="1">
         <v>12.425585</v>
       </c>
       <c r="AG22" s="1">
-        <v>1226.940000</v>
+        <v>1226.94</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.779400</v>
+        <v>-85.779399999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>44742.680726</v>
+        <v>44742.680725999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>12.428522</v>
+        <v>12.428521999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1234.440000</v>
+        <v>1234.44</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.619400</v>
+        <v>-89.619399999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>44753.561465</v>
+        <v>44753.561464999999</v>
       </c>
       <c r="AP22" s="1">
         <v>12.431545</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.953000</v>
+        <v>-101.953</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>44764.312746</v>
+        <v>44764.312746000003</v>
       </c>
       <c r="AU22" s="1">
         <v>12.434531</v>
       </c>
       <c r="AV22" s="1">
-        <v>1252.700000</v>
+        <v>1252.7</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.600000</v>
+        <v>-121.6</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>44775.546139</v>
+        <v>44775.546138999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.437652</v>
       </c>
       <c r="BA22" s="1">
-        <v>1261.200000</v>
+        <v>1261.2</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.343000</v>
+        <v>-139.34299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>44786.694220</v>
+        <v>44786.694219999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.440748</v>
+        <v>12.440747999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.359000</v>
+        <v>-222.35900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>44797.701965</v>
@@ -5801,76 +6217,76 @@
         <v>12.443806</v>
       </c>
       <c r="BK22" s="1">
-        <v>1371.220000</v>
+        <v>1371.22</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.877000</v>
+        <v>-360.87700000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>44807.912613</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.446642</v>
+        <v>12.446642000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.000000</v>
+        <v>1486</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-587.065000</v>
+        <v>-587.06500000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>44818.477362</v>
+        <v>44818.477361999998</v>
       </c>
       <c r="BT22" s="1">
         <v>12.449577</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.590000</v>
+        <v>1618.59</v>
       </c>
       <c r="BV22" s="1">
-        <v>-842.533000</v>
+        <v>-842.53300000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>44829.297124</v>
+        <v>44829.297123999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.452583</v>
+        <v>12.452583000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.490000</v>
+        <v>1772.49</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1122.030000</v>
+        <v>-1122.03</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>44842.336280</v>
+        <v>44842.336280000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>12.456205</v>
+        <v>12.456205000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2195.060000</v>
+        <v>2195.06</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1799.920000</v>
+        <v>-1799.92</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>44669.299111</v>
       </c>
@@ -5878,770 +6294,770 @@
         <v>12.408139</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D23" s="1">
-        <v>-235.688000</v>
+        <v>-235.68799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>44679.757257</v>
+        <v>44679.757256999997</v>
       </c>
       <c r="G23" s="1">
         <v>12.411044</v>
       </c>
       <c r="H23" s="1">
-        <v>1168.680000</v>
+        <v>1168.68</v>
       </c>
       <c r="I23" s="1">
-        <v>-200.056000</v>
+        <v>-200.05600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>44690.175259</v>
+        <v>44690.175259000003</v>
       </c>
       <c r="L23" s="1">
         <v>12.413938</v>
       </c>
       <c r="M23" s="1">
-        <v>1196.410000</v>
+        <v>1196.4100000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-143.886000</v>
+        <v>-143.886</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>44700.991982</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.416942</v>
+        <v>12.416942000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1204.990000</v>
+        <v>1204.99</v>
       </c>
       <c r="S23" s="1">
-        <v>-123.952000</v>
+        <v>-123.952</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>44711.460080</v>
+        <v>44711.460079999997</v>
       </c>
       <c r="V23" s="1">
-        <v>12.419850</v>
+        <v>12.41985</v>
       </c>
       <c r="W23" s="1">
-        <v>1213.240000</v>
+        <v>1213.24</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.396000</v>
+        <v>-105.396</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>44721.981220</v>
+        <v>44721.981220000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>12.422773</v>
+        <v>12.422772999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1221.850000</v>
+        <v>1221.8499999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.760900</v>
+        <v>-89.760900000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>44732.452260</v>
+        <v>44732.452259999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.425681</v>
+        <v>12.425681000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1226.900000</v>
+        <v>1226.9000000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.786800</v>
+        <v>-85.786799999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>44743.030903</v>
+        <v>44743.030902999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.428620</v>
+        <v>12.42862</v>
       </c>
       <c r="AL23" s="1">
-        <v>1234.490000</v>
+        <v>1234.49</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.630200</v>
+        <v>-89.630200000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>44754.238537</v>
+        <v>44754.238536999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>12.431733</v>
+        <v>12.431732999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.916000</v>
+        <v>-101.916</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>44765.000202</v>
+        <v>44765.000202000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>12.434722</v>
+        <v>12.434722000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.584000</v>
+        <v>-121.584</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>44775.985100</v>
+        <v>44775.985099999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.437774</v>
+        <v>12.437773999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.344000</v>
+        <v>-139.34399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>44787.054352</v>
+        <v>44787.054351999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.440848</v>
+        <v>12.440848000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1301.480000</v>
+        <v>1301.48</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.383000</v>
+        <v>-222.38300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>44798.079389</v>
+        <v>44798.079388999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>12.443911</v>
       </c>
       <c r="BK23" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.891000</v>
+        <v>-360.89100000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>44808.310863</v>
+        <v>44808.310862999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>12.446753</v>
+        <v>12.446752999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-587.032000</v>
+        <v>-587.03200000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>44818.913843</v>
+        <v>44818.913843000002</v>
       </c>
       <c r="BT23" s="1">
         <v>12.449698</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.500000</v>
+        <v>1618.5</v>
       </c>
       <c r="BV23" s="1">
-        <v>-842.607000</v>
+        <v>-842.60699999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>44829.746503</v>
+        <v>44829.746503000002</v>
       </c>
       <c r="BY23" s="1">
         <v>12.452707</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.510000</v>
+        <v>1772.51</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1122.020000</v>
+        <v>-1122.02</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>44842.874579</v>
+        <v>44842.874579000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>12.456354</v>
+        <v>12.456353999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2197.610000</v>
+        <v>2197.61</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1799.820000</v>
+        <v>-1799.82</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>44669.638873</v>
+        <v>44669.638873000004</v>
       </c>
       <c r="B24" s="1">
-        <v>12.408233</v>
+        <v>12.408232999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.590000</v>
+        <v>1149.5899999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-235.955000</v>
+        <v>-235.95500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>44680.100986</v>
+        <v>44680.100985999998</v>
       </c>
       <c r="G24" s="1">
         <v>12.411139</v>
       </c>
       <c r="H24" s="1">
-        <v>1169.080000</v>
+        <v>1169.08</v>
       </c>
       <c r="I24" s="1">
-        <v>-200.864000</v>
+        <v>-200.864</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>44690.868139</v>
+        <v>44690.868138999998</v>
       </c>
       <c r="L24" s="1">
-        <v>12.414130</v>
+        <v>12.41413</v>
       </c>
       <c r="M24" s="1">
-        <v>1196.250000</v>
+        <v>1196.25</v>
       </c>
       <c r="N24" s="1">
-        <v>-143.822000</v>
+        <v>-143.822</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>44701.374398</v>
       </c>
       <c r="Q24" s="1">
-        <v>12.417048</v>
+        <v>12.417047999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1204.960000</v>
+        <v>1204.96</v>
       </c>
       <c r="S24" s="1">
-        <v>-123.988000</v>
+        <v>-123.988</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>44711.805759</v>
+        <v>44711.805759000003</v>
       </c>
       <c r="V24" s="1">
-        <v>12.419946</v>
+        <v>12.419945999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1213.160000</v>
+        <v>1213.1600000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-105.252000</v>
+        <v>-105.252</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>44722.329377</v>
+        <v>44722.329377000002</v>
       </c>
       <c r="AA24" s="1">
         <v>12.422869</v>
       </c>
       <c r="AB24" s="1">
-        <v>1221.800000</v>
+        <v>1221.8</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.678000</v>
+        <v>-89.677999999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>44732.798468</v>
+        <v>44732.798468000001</v>
       </c>
       <c r="AF24" s="1">
         <v>12.425777</v>
       </c>
       <c r="AG24" s="1">
-        <v>1226.940000</v>
+        <v>1226.94</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.807800</v>
+        <v>-85.8078</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>44743.685652</v>
       </c>
       <c r="AK24" s="1">
-        <v>12.428802</v>
+        <v>12.428801999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1234.450000</v>
+        <v>1234.45</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.651500</v>
+        <v>-89.651499999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>44754.640759</v>
+        <v>44754.640759000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>12.431845</v>
+        <v>12.431844999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1242.620000</v>
+        <v>1242.6199999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.931000</v>
+        <v>-101.931</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>44765.427753</v>
+        <v>44765.427753000004</v>
       </c>
       <c r="AU24" s="1">
         <v>12.434841</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.690000</v>
+        <v>1252.69</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.581000</v>
+        <v>-121.581</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>44776.345194</v>
+        <v>44776.345194000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>12.437874</v>
+        <v>12.437874000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1261.190000</v>
+        <v>1261.19</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.331000</v>
+        <v>-139.33099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>44787.412428</v>
+        <v>44787.412428000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.440948</v>
+        <v>12.440948000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.401000</v>
+        <v>-222.40100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>44798.456845</v>
+        <v>44798.456845000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>12.444016</v>
       </c>
       <c r="BK24" s="1">
-        <v>1371.260000</v>
+        <v>1371.26</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.915000</v>
+        <v>-360.91500000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>44808.732996</v>
+        <v>44808.732995999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.446870</v>
+        <v>12.446870000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.990000</v>
+        <v>1485.99</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-587.072000</v>
+        <v>-587.072</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>44819.309154</v>
+        <v>44819.309154000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.449808</v>
+        <v>12.449808000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.300000</v>
+        <v>1618.3</v>
       </c>
       <c r="BV24" s="1">
-        <v>-842.667000</v>
+        <v>-842.66700000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>44830.205268</v>
+        <v>44830.205267999998</v>
       </c>
       <c r="BY24" s="1">
         <v>12.452835</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1772.390000</v>
+        <v>1772.39</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1121.900000</v>
+        <v>-1121.9000000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>44843.412774</v>
+        <v>44843.412773999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>12.456504</v>
+        <v>12.456504000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2195.580000</v>
+        <v>2195.58</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1798.490000</v>
+        <v>-1798.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>44670.321366</v>
+        <v>44670.321365999996</v>
       </c>
       <c r="B25" s="1">
-        <v>12.408423</v>
+        <v>12.408423000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.600000</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-236.028000</v>
+        <v>-236.02799999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>44680.667264</v>
+        <v>44680.667264000003</v>
       </c>
       <c r="G25" s="1">
         <v>12.411296</v>
       </c>
       <c r="H25" s="1">
-        <v>1168.760000</v>
+        <v>1168.76</v>
       </c>
       <c r="I25" s="1">
-        <v>-200.651000</v>
+        <v>-200.65100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>44691.217357</v>
+        <v>44691.217357000001</v>
       </c>
       <c r="L25" s="1">
         <v>12.414227</v>
       </c>
       <c r="M25" s="1">
-        <v>1196.470000</v>
+        <v>1196.47</v>
       </c>
       <c r="N25" s="1">
-        <v>-143.708000</v>
+        <v>-143.708</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>44701.723125</v>
+        <v>44701.723124999997</v>
       </c>
       <c r="Q25" s="1">
         <v>12.417145</v>
       </c>
       <c r="R25" s="1">
-        <v>1204.980000</v>
+        <v>1204.98</v>
       </c>
       <c r="S25" s="1">
-        <v>-124.089000</v>
+        <v>-124.089</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>44712.149982</v>
+        <v>44712.149982000003</v>
       </c>
       <c r="V25" s="1">
         <v>12.420042</v>
       </c>
       <c r="W25" s="1">
-        <v>1213.130000</v>
+        <v>1213.1300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.080000</v>
+        <v>-105.08</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>44722.993522</v>
+        <v>44722.993521999997</v>
       </c>
       <c r="AA25" s="1">
         <v>12.423054</v>
       </c>
       <c r="AB25" s="1">
-        <v>1221.750000</v>
+        <v>1221.75</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.604700</v>
+        <v>-89.604699999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>44733.491382</v>
       </c>
       <c r="AF25" s="1">
-        <v>12.425970</v>
+        <v>12.42597</v>
       </c>
       <c r="AG25" s="1">
-        <v>1226.920000</v>
+        <v>1226.92</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.779300</v>
+        <v>-85.779300000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>44744.076503</v>
+        <v>44744.076502999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.428910</v>
+        <v>12.42891</v>
       </c>
       <c r="AL25" s="1">
-        <v>1234.460000</v>
+        <v>1234.46</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.668100</v>
+        <v>-89.668099999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>44755.022182</v>
+        <v>44755.022182000001</v>
       </c>
       <c r="AP25" s="1">
         <v>12.431951</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1242.610000</v>
+        <v>1242.6099999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.939000</v>
+        <v>-101.93899999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>44765.790824</v>
+        <v>44765.790824000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>12.434942</v>
+        <v>12.434941999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.690000</v>
+        <v>1252.69</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.589000</v>
+        <v>-121.589</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>44776.702811</v>
+        <v>44776.702811000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.437973</v>
       </c>
       <c r="BA25" s="1">
-        <v>1261.180000</v>
+        <v>1261.18</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.314000</v>
+        <v>-139.31399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>44787.834028</v>
+        <v>44787.834027999997</v>
       </c>
       <c r="BE25" s="1">
         <v>12.441065</v>
       </c>
       <c r="BF25" s="1">
-        <v>1301.490000</v>
+        <v>1301.49</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.370000</v>
+        <v>-222.37</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>44798.881917</v>
+        <v>44798.881916999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>12.444134</v>
       </c>
       <c r="BK25" s="1">
-        <v>1371.290000</v>
+        <v>1371.29</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.867000</v>
+        <v>-360.86700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>44809.129264</v>
+        <v>44809.129264000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>12.446980</v>
+        <v>12.44698</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.950000</v>
+        <v>1485.95</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-587.049000</v>
+        <v>-587.04899999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>44819.726288</v>
+        <v>44819.726287999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>12.449924</v>
+        <v>12.449923999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.360000</v>
+        <v>1618.36</v>
       </c>
       <c r="BV25" s="1">
-        <v>-842.751000</v>
+        <v>-842.75099999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>44830.649187</v>
+        <v>44830.649187000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>12.452958</v>
+        <v>12.452958000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.420000</v>
+        <v>1772.42</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1121.760000</v>
+        <v>-1121.76</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>44843.953916</v>
+        <v>44843.953915999999</v>
       </c>
       <c r="CD25" s="1">
         <v>12.456654</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.210000</v>
+        <v>2196.21</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1801.200000</v>
+        <v>-1801.2</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>44670.661622</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>12.408517</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.690000</v>
+        <v>1149.69</v>
       </c>
       <c r="D26" s="1">
-        <v>-235.730000</v>
+        <v>-235.73</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>44681.017594</v>
+        <v>44681.017593999997</v>
       </c>
       <c r="G26" s="1">
         <v>12.411394</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.060000</v>
+        <v>1169.06</v>
       </c>
       <c r="I26" s="1">
-        <v>-200.059000</v>
+        <v>-200.059</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>44691.561086</v>
+        <v>44691.561086000002</v>
       </c>
       <c r="L26" s="1">
         <v>12.414323</v>
       </c>
       <c r="M26" s="1">
-        <v>1196.410000</v>
+        <v>1196.4100000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-143.686000</v>
+        <v>-143.68600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>44702.375325</v>
+        <v>44702.375325000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>12.417326</v>
+        <v>12.417325999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1204.870000</v>
+        <v>1204.8699999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-124.093000</v>
+        <v>-124.093</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>44712.804702</v>
+        <v>44712.804702000001</v>
       </c>
       <c r="V26" s="1">
-        <v>12.420224</v>
+        <v>12.420223999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.240000</v>
+        <v>1213.24</v>
       </c>
       <c r="X26" s="1">
-        <v>-105.157000</v>
+        <v>-105.157</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>44723.374945</v>
+        <v>44723.374945000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.423160</v>
+        <v>12.423159999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1221.790000</v>
+        <v>1221.79</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.684900</v>
+        <v>-89.684899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>44733.850482</v>
+        <v>44733.850482000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.426070</v>
+        <v>12.426069999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1226.710000</v>
+        <v>1226.71</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.670500</v>
+        <v>-85.670500000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>44744.426148</v>
+        <v>44744.426147999999</v>
       </c>
       <c r="AK26" s="1">
         <v>12.429007</v>
       </c>
       <c r="AL26" s="1">
-        <v>1234.480000</v>
+        <v>1234.48</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.643600</v>
+        <v>-89.643600000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>44755.383765</v>
+        <v>44755.383764999999</v>
       </c>
       <c r="AP26" s="1">
         <v>12.432051</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1242.590000</v>
+        <v>1242.5899999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.943000</v>
+        <v>-101.943</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>44766.169271</v>
+        <v>44766.169270999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>12.435047</v>
+        <v>12.435047000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.720000</v>
+        <v>1252.72</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.597000</v>
+        <v>-121.59699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>44777.129866</v>
+        <v>44777.129866000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.438092</v>
+        <v>12.438091999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1261.230000</v>
+        <v>1261.23</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.303000</v>
+        <v>-139.303</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>44788.140060</v>
+        <v>44788.140059999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.441150</v>
+        <v>12.44115</v>
       </c>
       <c r="BF26" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.385000</v>
+        <v>-222.38499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>44799.224652</v>
+        <v>44799.224651999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.444229</v>
       </c>
       <c r="BK26" s="1">
-        <v>1371.200000</v>
+        <v>1371.2</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.884000</v>
+        <v>-360.88400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>44809.547390</v>
+        <v>44809.54739</v>
       </c>
       <c r="BO26" s="1">
         <v>12.447096</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.000000</v>
+        <v>1486</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-587.082000</v>
+        <v>-587.08199999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>44820.142928</v>
+        <v>44820.142928000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>12.450040</v>
+        <v>12.45004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.290000</v>
+        <v>1618.29</v>
       </c>
       <c r="BV26" s="1">
-        <v>-842.825000</v>
+        <v>-842.82500000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>44831.108482</v>
+        <v>44831.108482000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>12.453086</v>
+        <v>12.453086000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.350000</v>
+        <v>1772.35</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1121.870000</v>
+        <v>-1121.8699999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>44844.491058</v>
       </c>
       <c r="CD26" s="1">
-        <v>12.456803</v>
+        <v>12.456803000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2196.990000</v>
+        <v>2196.9899999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1798.470000</v>
+        <v>-1798.47</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>